--- a/Document/DOC_source/3. 일정정리(간트차트 작성)/JAVA 프로젝트 일정도표(초안).xlsx
+++ b/Document/DOC_source/3. 일정정리(간트차트 작성)/JAVA 프로젝트 일정도표(초안).xlsx
@@ -714,9 +714,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -737,10 +737,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2006,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
